--- a/natmiOut/OldD7/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.01056068992569</v>
+        <v>0.3448526666666667</v>
       </c>
       <c r="H2">
-        <v>8.01056068992569</v>
+        <v>1.034558</v>
       </c>
       <c r="I2">
-        <v>0.7458964034855994</v>
+        <v>0.02513720817446796</v>
       </c>
       <c r="J2">
-        <v>0.7458964034855994</v>
+        <v>0.02513720817446796</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>8.31366932520258</v>
+        <v>0.05473433333333333</v>
       </c>
       <c r="N2">
-        <v>8.31366932520258</v>
+        <v>0.164203</v>
       </c>
       <c r="O2">
-        <v>0.9747063141825595</v>
+        <v>0.005873455178951466</v>
       </c>
       <c r="P2">
-        <v>0.9747063141825595</v>
+        <v>0.005873455178951466</v>
       </c>
       <c r="Q2">
-        <v>66.59715268550883</v>
+        <v>0.01887528080822222</v>
       </c>
       <c r="R2">
-        <v>66.59715268550883</v>
+        <v>0.169877527274</v>
       </c>
       <c r="S2">
-        <v>0.7270299342034758</v>
+        <v>0.00014764226553671</v>
       </c>
       <c r="T2">
-        <v>0.7270299342034758</v>
+        <v>0.00014764226553671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>8.01056068992569</v>
+        <v>0.3448526666666667</v>
       </c>
       <c r="H3">
-        <v>8.01056068992569</v>
+        <v>1.034558</v>
       </c>
       <c r="I3">
-        <v>0.7458964034855994</v>
+        <v>0.02513720817446796</v>
       </c>
       <c r="J3">
-        <v>0.7458964034855994</v>
+        <v>0.02513720817446796</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.215740204861729</v>
+        <v>8.501068666666667</v>
       </c>
       <c r="N3">
-        <v>0.215740204861729</v>
+        <v>25.503206</v>
       </c>
       <c r="O3">
-        <v>0.02529368581744044</v>
+        <v>0.912236301167251</v>
       </c>
       <c r="P3">
-        <v>0.02529368581744044</v>
+        <v>0.912236301167251</v>
       </c>
       <c r="Q3">
-        <v>1.728200004301882</v>
+        <v>2.931616199216445</v>
       </c>
       <c r="R3">
-        <v>1.728200004301882</v>
+        <v>26.384545792948</v>
       </c>
       <c r="S3">
-        <v>0.01886646928212354</v>
+        <v>0.02293107380674783</v>
       </c>
       <c r="T3">
-        <v>0.01886646928212354</v>
+        <v>0.02293107380674783</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.72894770895124</v>
+        <v>0.3448526666666667</v>
       </c>
       <c r="H4">
-        <v>2.72894770895124</v>
+        <v>1.034558</v>
       </c>
       <c r="I4">
-        <v>0.2541035965144006</v>
+        <v>0.02513720817446796</v>
       </c>
       <c r="J4">
-        <v>0.2541035965144006</v>
+        <v>0.02513720817446796</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.31366932520258</v>
+        <v>0.7631296666666666</v>
       </c>
       <c r="N4">
-        <v>8.31366932520258</v>
+        <v>2.289389</v>
       </c>
       <c r="O4">
-        <v>0.9747063141825595</v>
+        <v>0.08189024365379753</v>
       </c>
       <c r="P4">
-        <v>0.9747063141825595</v>
+        <v>0.08189024365379755</v>
       </c>
       <c r="Q4">
-        <v>22.68756885798978</v>
+        <v>0.2631673005624444</v>
       </c>
       <c r="R4">
-        <v>22.68756885798978</v>
+        <v>2.368505705062</v>
       </c>
       <c r="S4">
-        <v>0.2476763799790837</v>
+        <v>0.002058492102183412</v>
       </c>
       <c r="T4">
-        <v>0.2476763799790837</v>
+        <v>0.002058492102183413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>8.096090333333334</v>
+      </c>
+      <c r="H5">
+        <v>24.288271</v>
+      </c>
+      <c r="I5">
+        <v>0.5901450902944959</v>
+      </c>
+      <c r="J5">
+        <v>0.5901450902944958</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05473433333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.164203</v>
+      </c>
+      <c r="O5">
+        <v>0.005873455178951466</v>
+      </c>
+      <c r="P5">
+        <v>0.005873455178951466</v>
+      </c>
+      <c r="Q5">
+        <v>0.4431341070014445</v>
+      </c>
+      <c r="R5">
+        <v>3.988206963013</v>
+      </c>
+      <c r="S5">
+        <v>0.003466190736922988</v>
+      </c>
+      <c r="T5">
+        <v>0.003466190736922987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8.096090333333334</v>
+      </c>
+      <c r="H6">
+        <v>24.288271</v>
+      </c>
+      <c r="I6">
+        <v>0.5901450902944959</v>
+      </c>
+      <c r="J6">
+        <v>0.5901450902944958</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>8.501068666666667</v>
+      </c>
+      <c r="N6">
+        <v>25.503206</v>
+      </c>
+      <c r="O6">
+        <v>0.912236301167251</v>
+      </c>
+      <c r="P6">
+        <v>0.912236301167251</v>
+      </c>
+      <c r="Q6">
+        <v>68.8254198552029</v>
+      </c>
+      <c r="R6">
+        <v>619.428778696826</v>
+      </c>
+      <c r="S6">
+        <v>0.5383517743222643</v>
+      </c>
+      <c r="T6">
+        <v>0.5383517743222642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.096090333333334</v>
+      </c>
+      <c r="H7">
+        <v>24.288271</v>
+      </c>
+      <c r="I7">
+        <v>0.5901450902944959</v>
+      </c>
+      <c r="J7">
+        <v>0.5901450902944958</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7631296666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.289389</v>
+      </c>
+      <c r="O7">
+        <v>0.08189024365379753</v>
+      </c>
+      <c r="P7">
+        <v>0.08189024365379755</v>
+      </c>
+      <c r="Q7">
+        <v>6.178366717379889</v>
+      </c>
+      <c r="R7">
+        <v>55.605300456419</v>
+      </c>
+      <c r="S7">
+        <v>0.04832712523530862</v>
+      </c>
+      <c r="T7">
+        <v>0.04832712523530861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.277870333333333</v>
+      </c>
+      <c r="H8">
+        <v>15.833611</v>
+      </c>
+      <c r="I8">
+        <v>0.3847177015310362</v>
+      </c>
+      <c r="J8">
+        <v>0.3847177015310362</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05473433333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.164203</v>
+      </c>
+      <c r="O8">
+        <v>0.005873455178951466</v>
+      </c>
+      <c r="P8">
+        <v>0.005873455178951466</v>
+      </c>
+      <c r="Q8">
+        <v>0.2888807141147778</v>
+      </c>
+      <c r="R8">
+        <v>2.599926427033</v>
+      </c>
+      <c r="S8">
+        <v>0.002259622176491769</v>
+      </c>
+      <c r="T8">
+        <v>0.002259622176491769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.72894770895124</v>
-      </c>
-      <c r="H5">
-        <v>2.72894770895124</v>
-      </c>
-      <c r="I5">
-        <v>0.2541035965144006</v>
-      </c>
-      <c r="J5">
-        <v>0.2541035965144006</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.215740204861729</v>
-      </c>
-      <c r="N5">
-        <v>0.215740204861729</v>
-      </c>
-      <c r="O5">
-        <v>0.02529368581744044</v>
-      </c>
-      <c r="P5">
-        <v>0.02529368581744044</v>
-      </c>
-      <c r="Q5">
-        <v>0.5887437377860866</v>
-      </c>
-      <c r="R5">
-        <v>0.5887437377860866</v>
-      </c>
-      <c r="S5">
-        <v>0.006427216535316904</v>
-      </c>
-      <c r="T5">
-        <v>0.006427216535316904</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.277870333333333</v>
+      </c>
+      <c r="H9">
+        <v>15.833611</v>
+      </c>
+      <c r="I9">
+        <v>0.3847177015310362</v>
+      </c>
+      <c r="J9">
+        <v>0.3847177015310362</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.501068666666667</v>
+      </c>
+      <c r="N9">
+        <v>25.503206</v>
+      </c>
+      <c r="O9">
+        <v>0.912236301167251</v>
+      </c>
+      <c r="P9">
+        <v>0.912236301167251</v>
+      </c>
+      <c r="Q9">
+        <v>44.86753811742955</v>
+      </c>
+      <c r="R9">
+        <v>403.807843056866</v>
+      </c>
+      <c r="S9">
+        <v>0.3509534530382389</v>
+      </c>
+      <c r="T9">
+        <v>0.3509534530382389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.277870333333333</v>
+      </c>
+      <c r="H10">
+        <v>15.833611</v>
+      </c>
+      <c r="I10">
+        <v>0.3847177015310362</v>
+      </c>
+      <c r="J10">
+        <v>0.3847177015310362</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7631296666666666</v>
+      </c>
+      <c r="N10">
+        <v>2.289389</v>
+      </c>
+      <c r="O10">
+        <v>0.08189024365379753</v>
+      </c>
+      <c r="P10">
+        <v>0.08189024365379755</v>
+      </c>
+      <c r="Q10">
+        <v>4.027699428186556</v>
+      </c>
+      <c r="R10">
+        <v>36.249294853679</v>
+      </c>
+      <c r="S10">
+        <v>0.03150462631630551</v>
+      </c>
+      <c r="T10">
+        <v>0.03150462631630552</v>
       </c>
     </row>
   </sheetData>
